--- a/api/org-data/suggest/멀티에셋 인컴.xlsx
+++ b/api/org-data/suggest/멀티에셋 인컴.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.16.130.210\금융공학운용부문\J\김효정\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyojeong_kim\PycharmProjects\web-portfolio\api\org-data\suggest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="46">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회사채</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시니어론</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,10 +104,6 @@
   </si>
   <si>
     <t>하이일드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사채</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -590,7 +582,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E17"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -628,7 +620,7 @@
         <v>0.11310000000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2" t="e">
         <f ca="1">_xll.BDP(E2,"NAME")</f>
@@ -649,7 +641,7 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" t="e">
         <f ca="1">_xll.BDP(E3,"NAME")</f>
@@ -670,7 +662,7 @@
         <v>9.11E-2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" t="e">
         <f ca="1">_xll.BDP(E4,"NAME")</f>
@@ -691,7 +683,7 @@
         <v>8.5699999999999998E-2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" t="e">
         <f ca="1">_xll.BDP(E5,"NAME")</f>
@@ -700,19 +692,19 @@
     </row>
     <row r="6" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>0.12859999999999999</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" s="6">
         <v>6.4600000000000005E-2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" t="e">
         <f ca="1">_xll.BDP(E6,"NAME")</f>
@@ -721,19 +713,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>0.12859999999999999</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" s="6">
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" t="e">
         <f ca="1">_xll.BDP(E7,"NAME")</f>
@@ -742,7 +734,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
         <v>0.1875</v>
@@ -754,7 +746,7 @@
         <v>9.2600000000000002E-2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F8" t="e">
         <f ca="1">_xll.BDP(E8,"NAME")</f>
@@ -763,7 +755,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1">
         <v>0.1875</v>
@@ -775,7 +767,7 @@
         <v>9.4899999999999998E-2</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F9" t="e">
         <f ca="1">_xll.BDP(E9,"NAME")</f>
@@ -784,19 +776,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>4.1200000000000001E-2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" s="6">
         <v>4.1200000000000001E-2</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F10" t="e">
         <f ca="1">_xll.BDP(E10,"NAME")</f>
@@ -805,19 +797,20 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
-        <v>5.8999999999999999E-3</v>
+        <f>B14</f>
+        <v>9.3600000000000003E-2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="6">
         <v>5.8999999999999999E-3</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" t="e">
         <f ca="1">_xll.BDP(E11,"NAME")</f>
@@ -826,19 +819,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1">
         <v>5.6899999999999999E-2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" s="6">
         <v>2.81E-2</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F12" t="e">
         <f ca="1">_xll.BDP(E12,"NAME")</f>
@@ -847,19 +840,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1">
         <v>5.6899999999999999E-2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" s="6">
         <v>2.8799999999999999E-2</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F13" t="e">
         <f ca="1">_xll.BDP(E13,"NAME")</f>
@@ -868,19 +861,20 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
-        <v>8.77E-2</v>
+        <f>8.77%+D11</f>
+        <v>9.3600000000000003E-2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14" s="6">
         <v>2.8799999999999999E-2</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F14" t="e">
         <f ca="1">_xll.BDP(E14,"NAME")</f>
@@ -889,10 +883,11 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1">
-        <v>8.77E-2</v>
+        <f>B14</f>
+        <v>9.3600000000000003E-2</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>11</v>
@@ -901,7 +896,7 @@
         <v>5.8900000000000001E-2</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F15" t="e">
         <f ca="1">_xll.BDP(E15,"NAME")</f>
@@ -910,7 +905,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1">
         <v>6.08E-2</v>
@@ -922,7 +917,7 @@
         <v>3.0800000000000001E-2</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F16" t="e">
         <f ca="1">_xll.BDP(E16,"NAME")</f>
@@ -931,7 +926,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1">
         <v>6.08E-2</v>
@@ -943,7 +938,7 @@
         <v>3.32E-2</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F17" t="e">
         <f ca="1">_xll.BDP(E17,"NAME")</f>
@@ -972,7 +967,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1013,7 +1008,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" t="e">
         <f ca="1">_xll.BDP(E2,"NAME")</f>
@@ -1035,7 +1030,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" t="e">
         <f ca="1">_xll.BDP(E3,"NAME")</f>
@@ -1066,20 +1061,20 @@
     </row>
     <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <f>SUM(D5:D6)</f>
         <v>0.16849999999999998</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="6">
         <v>8.3599999999999994E-2</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F5" t="e">
         <f ca="1">_xll.BDP(E5,"NAME")</f>
@@ -1088,20 +1083,20 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <f>B5</f>
         <v>0.16849999999999998</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="6">
         <v>8.4900000000000003E-2</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" t="e">
         <f ca="1">_xll.BDP(E6,"NAME")</f>
@@ -1123,7 +1118,7 @@
         <v>6.3399999999999998E-2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F7" t="e">
         <f ca="1">_xll.BDP(E7,"NAME")</f>
@@ -1145,106 +1140,106 @@
         <v>6.0600000000000001E-2</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <f>D9</f>
         <v>4.3099999999999999E-2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" s="6">
         <v>4.3099999999999999E-2</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
-        <f>D10</f>
-        <v>3.1199999999999999E-2</v>
+        <f>B13</f>
+        <v>0.20100000000000001</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="6">
         <v>3.1199999999999999E-2</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1">
         <f>SUM(D11:D12)</f>
         <v>6.59E-2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="6">
         <v>3.3099999999999997E-2</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1">
         <f>B11</f>
         <v>6.59E-2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" s="6">
         <v>3.2800000000000003E-2</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1">
-        <f>SUM(D13:D14)</f>
-        <v>0.16980000000000001</v>
+        <f>SUM(D13:D14)+D10</f>
+        <v>0.20100000000000001</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" s="6">
         <v>6.6199999999999995E-2</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <f>B13</f>
-        <v>0.16980000000000001</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>11</v>
@@ -1253,12 +1248,12 @@
         <v>0.1036</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1">
         <f>SUM(D15:D16)</f>
@@ -1276,7 +1271,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1">
         <f>B15</f>
@@ -1289,7 +1284,7 @@
         <v>8.1900000000000001E-2</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -1314,7 +1309,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1354,7 +1349,7 @@
         <v>5.33E-2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" t="e">
         <f ca="1">_xll.BDP(E2,"NAME")</f>
@@ -1376,7 +1371,7 @@
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" t="e">
         <f ca="1">_xll.BDP(E3,"NAME")</f>
@@ -1407,20 +1402,20 @@
     </row>
     <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <f>SUM(D5:D6)</f>
         <v>0.2321</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="6">
         <v>0.11070000000000001</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F5" t="e">
         <f ca="1">_xll.BDP(E5,"NAME")</f>
@@ -1429,20 +1424,20 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <f>B5</f>
         <v>0.2321</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="6">
         <v>0.12139999999999999</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" t="e">
         <f ca="1">_xll.BDP(E6,"NAME")</f>
@@ -1464,7 +1459,7 @@
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F7" t="e">
         <f ca="1">_xll.BDP(E7,"NAME")</f>
@@ -1486,106 +1481,106 @@
         <v>1.11E-2</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <f>D9</f>
         <v>3.1699999999999999E-2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" s="6">
         <v>3.1699999999999999E-2</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
-        <f>D10</f>
-        <v>1.8200000000000001E-2</v>
+        <f>B13</f>
+        <v>0.2954</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="6">
         <v>1.8200000000000001E-2</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1">
         <f>SUM(D11:D12)</f>
         <v>6.1600000000000002E-2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="6">
         <v>3.0800000000000001E-2</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1">
         <f>B11</f>
         <v>6.1600000000000002E-2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" s="6">
         <v>3.0800000000000001E-2</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1">
-        <f>SUM(D13:D14)</f>
-        <v>0.2772</v>
+        <f>SUM(D13:D14)+D10</f>
+        <v>0.2954</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" s="6">
         <v>0.1007</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <f>B13</f>
-        <v>0.2772</v>
+        <v>0.2954</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>11</v>
@@ -1594,12 +1589,12 @@
         <v>0.17649999999999999</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1">
         <f>SUM(D15:D16)</f>
@@ -1617,7 +1612,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1">
         <f>B15</f>
@@ -1630,7 +1625,7 @@
         <v>0.1487</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
